--- a/BAGE.xlsx
+++ b/BAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7163BD20-C057-4C38-8FF9-5E1A654EB2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E445F0F6-91D0-4224-AE6D-F2B8426D3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1651,7 +1638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1711,36 +1698,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1779,14 +1742,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,7 +1798,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4452CECA-378D-4317-AE46-8EBBFE20CF9F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5EE97DCD-8693-46D4-98E6-DEC8E58D0221}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1870,10 +1828,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05722B12-7FB0-4454-8872-E043AA4D82D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB4C15E-9E2E-4FF5-808D-CCCC22B65D93}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1869,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD5C5F0-2487-4F14-9674-AED28B4F03D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9889EECB-1ED4-4070-8AB4-16D809FA1731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1932,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE6E88C-0CF8-4768-B058-A0F610FDDF92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFEAA70-87E2-4ACB-850A-BDD70B1B638B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1951,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78247D7-CEF9-050B-1765-13C2286BAACD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A95F176-3628-0B4E-3149-B7B16D85CC1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2042,7 +2000,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38CA5DE-7B5E-5BF3-2795-6F6D7A408E76}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7981AC73-28F6-28AA-C5B4-520A95BD60B1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2061,7 +2019,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0981934D-ECE0-E764-8E08-E83194ACDD9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44766AD9-6B77-F6F4-AD3E-090962EB1A9C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2092,7 +2050,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97897B-A8A3-D7EF-82CD-E1DB61E97D8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A40974-CFB8-AD83-3D6D-AFCEC2F691C1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2123,7 +2081,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6B3B83-5465-F23A-A694-4FDED6013FE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBD192C-C7DB-5A13-DC81-6B5C0E803ACE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2166,7 +2124,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539FCE7F-5007-40C4-9380-49753C887BBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DD0AB9-F76D-4590-857D-3851C9FA589E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2162,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECFD1B7-A39D-4122-B91D-11235EF5808A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983C65A1-4BD8-496B-95D9-4DCBCE488778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2205,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5F35BA-5073-4258-AEF6-80D7991DC94F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EFBF33-F71E-4BDF-92CB-11C204CA5494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDAB317-DC65-4A5F-9274-A868A271B3B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED7CBDE-5070-485F-AF7A-7C3EDCC30E18}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2572,98 +2530,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="41"/>
-    <col min="6" max="6" width="2" style="41" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="41" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="41"/>
+    <col min="1" max="5" width="12.5703125" style="38"/>
+    <col min="6" max="6" width="2" style="38" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="40"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="40"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="40"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="40"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="40"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="40"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="40"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="40"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="40"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="40"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="40"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="40"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="40"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="40"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="40"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="40"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="40"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="40"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="40"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="40"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="40"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="40"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="40"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="40"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="40"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="40"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="40"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="40"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="40"/>
+      <c r="F29" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5897,19 +5855,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5932,145 +5890,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6088,16 +6046,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,7 +6089,7 @@
       <c r="J1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6145,10 +6103,10 @@
       <c r="C2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>96.8</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>9.68</v>
       </c>
       <c r="F2" s="2">
@@ -6166,7 +6124,7 @@
       <c r="J2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="23">
         <v>8965</v>
       </c>
     </row>
@@ -6180,10 +6138,10 @@
       <c r="C3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>96.8</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>9.68</v>
       </c>
       <c r="F3" s="2">
@@ -6201,7 +6159,7 @@
       <c r="J3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="23">
         <v>8965</v>
       </c>
     </row>
@@ -6215,10 +6173,10 @@
       <c r="C4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>35</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>3.5</v>
       </c>
       <c r="F4" s="2">
@@ -6236,7 +6194,7 @@
       <c r="J4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -6250,10 +6208,10 @@
       <c r="C5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>35</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>3.5</v>
       </c>
       <c r="F5" s="2">
@@ -6271,7 +6229,7 @@
       <c r="J5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -6285,10 +6243,10 @@
       <c r="C6" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>35</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>3.5</v>
       </c>
       <c r="F6" s="2">
@@ -6306,7 +6264,7 @@
       <c r="J6" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -6320,10 +6278,10 @@
       <c r="C7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>35</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>3.5</v>
       </c>
       <c r="F7" s="2">
@@ -6341,7 +6299,7 @@
       <c r="J7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -6355,10 +6313,10 @@
       <c r="C8" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>35</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>3.5</v>
       </c>
       <c r="F8" s="2">
@@ -6376,7 +6334,7 @@
       <c r="J8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -6390,10 +6348,10 @@
       <c r="C9" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>190</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>19</v>
       </c>
       <c r="F9" s="2">
@@ -6411,7 +6369,7 @@
       <c r="J9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6425,10 +6383,10 @@
       <c r="C10" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>178.97</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>17.899999999999999</v>
       </c>
       <c r="F10" s="2">
@@ -6446,7 +6404,7 @@
       <c r="J10" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6460,10 +6418,10 @@
       <c r="C11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>364</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>36.4</v>
       </c>
       <c r="F11" s="2">
@@ -6481,7 +6439,7 @@
       <c r="J11" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6495,10 +6453,10 @@
       <c r="C12" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>7.39</v>
       </c>
       <c r="F12" s="2">
@@ -6516,7 +6474,7 @@
       <c r="J12" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -6530,10 +6488,10 @@
       <c r="C13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>862.4</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>86.24</v>
       </c>
       <c r="F13" s="2">
@@ -6551,7 +6509,7 @@
       <c r="J13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -6565,10 +6523,10 @@
       <c r="C14" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>170</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>17</v>
       </c>
       <c r="F14" s="2">
@@ -6586,7 +6544,7 @@
       <c r="J14" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -6600,10 +6558,10 @@
       <c r="C15" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>210</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>21</v>
       </c>
       <c r="F15" s="2">
@@ -6621,7 +6579,7 @@
       <c r="J15" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -6635,10 +6593,10 @@
       <c r="C16" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>136.5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>13.65</v>
       </c>
       <c r="F16" s="2">
@@ -6656,7 +6614,7 @@
       <c r="J16" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6670,10 +6628,10 @@
       <c r="C17" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>136.5</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>13.65</v>
       </c>
       <c r="F17" s="2">
@@ -6691,7 +6649,7 @@
       <c r="J17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6705,10 +6663,10 @@
       <c r="C18" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>7.89</v>
       </c>
       <c r="F18" s="2">
@@ -6726,7 +6684,7 @@
       <c r="J18" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -6740,10 +6698,10 @@
       <c r="C19" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="22">
         <v>7.89</v>
       </c>
       <c r="F19" s="2">
@@ -6761,7 +6719,7 @@
       <c r="J19" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -6775,10 +6733,10 @@
       <c r="C20" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>7.89</v>
       </c>
       <c r="F20" s="2">
@@ -6796,7 +6754,7 @@
       <c r="J20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -6810,10 +6768,10 @@
       <c r="C21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>7.89</v>
       </c>
       <c r="F21" s="2">
@@ -6831,7 +6789,7 @@
       <c r="J21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -6845,10 +6803,10 @@
       <c r="C22" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="22">
         <v>7.89</v>
       </c>
       <c r="F22" s="2">
@@ -6866,7 +6824,7 @@
       <c r="J22" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -6880,10 +6838,10 @@
       <c r="C23" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>70.95</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>7.1</v>
       </c>
       <c r="F23" s="2">
@@ -6901,7 +6859,7 @@
       <c r="J23" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -6915,10 +6873,10 @@
       <c r="C24" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="22">
         <v>70</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>7</v>
       </c>
       <c r="F24" s="2">
@@ -6936,7 +6894,7 @@
       <c r="J24" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -6950,10 +6908,10 @@
       <c r="C25" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>70</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>7</v>
       </c>
       <c r="F25" s="2">
@@ -6971,7 +6929,7 @@
       <c r="J25" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -6985,10 +6943,10 @@
       <c r="C26" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>70</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>7</v>
       </c>
       <c r="F26" s="2">
@@ -7006,7 +6964,7 @@
       <c r="J26" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -7020,10 +6978,10 @@
       <c r="C27" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>70</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>7</v>
       </c>
       <c r="F27" s="2">
@@ -7041,7 +6999,7 @@
       <c r="J27" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -7055,10 +7013,10 @@
       <c r="C28" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="22">
         <v>70</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>7</v>
       </c>
       <c r="F28" s="2">
@@ -7076,7 +7034,7 @@
       <c r="J28" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -7090,10 +7048,10 @@
       <c r="C29" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="22">
         <v>54.49</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>5.45</v>
       </c>
       <c r="F29" s="2">
@@ -7111,7 +7069,7 @@
       <c r="J29" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7125,10 +7083,10 @@
       <c r="C30" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>7.59</v>
       </c>
       <c r="F30" s="2">
@@ -7146,7 +7104,7 @@
       <c r="J30" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="23">
         <v>17333</v>
       </c>
     </row>
@@ -7160,10 +7118,10 @@
       <c r="C31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>7.59</v>
       </c>
       <c r="F31" s="2">
@@ -7181,7 +7139,7 @@
       <c r="J31" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="23">
         <v>17333</v>
       </c>
     </row>
@@ -7195,10 +7153,10 @@
       <c r="C32" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="22">
         <v>110</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>11</v>
       </c>
       <c r="F32" s="2">
@@ -7216,7 +7174,7 @@
       <c r="J32" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="23">
         <v>13372</v>
       </c>
     </row>
@@ -7230,10 +7188,10 @@
       <c r="C33" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <v>136.5</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="22">
         <v>13.65</v>
       </c>
       <c r="F33" s="2">
@@ -7251,7 +7209,7 @@
       <c r="J33" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7265,10 +7223,10 @@
       <c r="C34" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="22">
         <v>136.5</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="22">
         <v>13.65</v>
       </c>
       <c r="F34" s="2">
@@ -7286,7 +7244,7 @@
       <c r="J34" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7300,10 +7258,10 @@
       <c r="C35" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <v>136.5</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <v>13.65</v>
       </c>
       <c r="F35" s="2">
@@ -7321,7 +7279,7 @@
       <c r="J35" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7335,10 +7293,10 @@
       <c r="C36" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="22">
         <v>114.88</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="22">
         <v>11.49</v>
       </c>
       <c r="F36" s="2">
@@ -7356,7 +7314,7 @@
       <c r="J36" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -7370,10 +7328,10 @@
       <c r="C37" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="22">
         <v>114.88</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="22">
         <v>11.49</v>
       </c>
       <c r="F37" s="2">
@@ -7391,7 +7349,7 @@
       <c r="J37" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -7405,10 +7363,10 @@
       <c r="C38" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="22">
         <v>699.3</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="22">
         <v>69.930000000000007</v>
       </c>
       <c r="F38" s="2">
@@ -7426,7 +7384,7 @@
       <c r="J38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7440,10 +7398,10 @@
       <c r="C39" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="22">
         <v>442</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="22">
         <v>44.2</v>
       </c>
       <c r="F39" s="2">
@@ -7461,7 +7419,7 @@
       <c r="J39" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="23">
         <v>17331</v>
       </c>
     </row>
@@ -7475,10 +7433,10 @@
       <c r="C40" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="22">
         <v>5185</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="22">
         <v>518.5</v>
       </c>
       <c r="F40" s="2">
@@ -7496,7 +7454,7 @@
       <c r="J40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7510,10 +7468,10 @@
       <c r="C41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="22">
         <v>5185</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="22">
         <v>518.5</v>
       </c>
       <c r="F41" s="2">
@@ -7531,7 +7489,7 @@
       <c r="J41" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7545,10 +7503,10 @@
       <c r="C42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="22">
         <v>649</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="22">
         <v>64.900000000000006</v>
       </c>
       <c r="F42" s="2">
@@ -7566,7 +7524,7 @@
       <c r="J42" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -7580,10 +7538,10 @@
       <c r="C43" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="22">
         <v>119.98</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="22">
         <v>12</v>
       </c>
       <c r="F43" s="2">
@@ -7601,7 +7559,7 @@
       <c r="J43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K43" s="26">
+      <c r="K43" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7615,10 +7573,10 @@
       <c r="C44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="22">
         <v>119.98</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="22">
         <v>12</v>
       </c>
       <c r="F44" s="2">
@@ -7636,7 +7594,7 @@
       <c r="J44" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7650,10 +7608,10 @@
       <c r="C45" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="22">
         <v>3103.74</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="22">
         <v>310.37</v>
       </c>
       <c r="F45" s="2">
@@ -7671,7 +7629,7 @@
       <c r="J45" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7685,10 +7643,10 @@
       <c r="C46" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="22">
         <v>3103.74</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="22">
         <v>310.37</v>
       </c>
       <c r="F46" s="2">
@@ -7706,7 +7664,7 @@
       <c r="J46" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="23">
         <v>17326</v>
       </c>
     </row>
@@ -7720,10 +7678,10 @@
       <c r="C47" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="22">
         <v>500</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="22">
         <v>50</v>
       </c>
       <c r="F47" s="2">
@@ -7741,7 +7699,7 @@
       <c r="J47" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7755,10 +7713,10 @@
       <c r="C48" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="22">
         <v>500</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="22">
         <v>50</v>
       </c>
       <c r="F48" s="2">
@@ -7776,7 +7734,7 @@
       <c r="J48" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7790,10 +7748,10 @@
       <c r="C49" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="22">
         <v>500</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="22">
         <v>50</v>
       </c>
       <c r="F49" s="2">
@@ -7811,7 +7769,7 @@
       <c r="J49" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -7825,10 +7783,10 @@
       <c r="C50" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="22">
         <v>500</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="22">
         <v>50</v>
       </c>
       <c r="F50" s="2">
@@ -7846,7 +7804,7 @@
       <c r="J50" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -7860,10 +7818,10 @@
       <c r="C51" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="22">
         <v>500</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="22">
         <v>50</v>
       </c>
       <c r="F51" s="2">
@@ -7881,7 +7839,7 @@
       <c r="J51" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -7895,10 +7853,10 @@
       <c r="C52" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="22">
         <v>500</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="22">
         <v>50</v>
       </c>
       <c r="F52" s="2">
@@ -7916,7 +7874,7 @@
       <c r="J52" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -7930,10 +7888,10 @@
       <c r="C53" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="22">
         <v>500</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="22">
         <v>50</v>
       </c>
       <c r="F53" s="2">
@@ -7951,7 +7909,7 @@
       <c r="J53" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="23">
         <v>17326</v>
       </c>
     </row>
@@ -7965,10 +7923,10 @@
       <c r="C54" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="22">
         <v>314.47000000000003</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="22">
         <v>31.45</v>
       </c>
       <c r="F54" s="2">
@@ -7986,7 +7944,7 @@
       <c r="J54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -8000,10 +7958,10 @@
       <c r="C55" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="22">
         <v>569.94000000000005</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="22">
         <v>288.12</v>
       </c>
       <c r="F55" s="2">
@@ -8021,7 +7979,7 @@
       <c r="J55" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -8035,10 +7993,10 @@
       <c r="C56" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="22">
         <v>170</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="22">
         <v>17</v>
       </c>
       <c r="F56" s="2">
@@ -8056,7 +8014,7 @@
       <c r="J56" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="23">
         <v>11221</v>
       </c>
     </row>
@@ -8070,10 +8028,10 @@
       <c r="C57" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="22">
         <v>170</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="22">
         <v>17</v>
       </c>
       <c r="F57" s="2">
@@ -8091,7 +8049,7 @@
       <c r="J57" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8105,10 +8063,10 @@
       <c r="C58" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="22">
         <v>7.89</v>
       </c>
       <c r="F58" s="2">
@@ -8126,7 +8084,7 @@
       <c r="J58" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8140,10 +8098,10 @@
       <c r="C59" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="22">
         <v>7.89</v>
       </c>
       <c r="F59" s="2">
@@ -8161,7 +8119,7 @@
       <c r="J59" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8175,10 +8133,10 @@
       <c r="C60" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="22">
         <v>70</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="22">
         <v>7</v>
       </c>
       <c r="F60" s="2">
@@ -8196,7 +8154,7 @@
       <c r="J60" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K60" s="26">
+      <c r="K60" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8210,10 +8168,10 @@
       <c r="C61" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="22">
         <v>84.9</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="22">
         <v>8.49</v>
       </c>
       <c r="F61" s="2">
@@ -8231,7 +8189,7 @@
       <c r="J61" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K61" s="26">
+      <c r="K61" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8245,10 +8203,10 @@
       <c r="C62" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="22">
         <v>84.9</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="22">
         <v>8.49</v>
       </c>
       <c r="F62" s="2">
@@ -8266,7 +8224,7 @@
       <c r="J62" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="23">
         <v>12354</v>
       </c>
     </row>
@@ -8280,10 +8238,10 @@
       <c r="C63" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="22">
         <v>236</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="22">
         <v>23.6</v>
       </c>
       <c r="F63" s="2">
@@ -8301,7 +8259,7 @@
       <c r="J63" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K63" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8315,10 +8273,10 @@
       <c r="C64" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="22">
         <v>148.96</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="22">
         <v>14.9</v>
       </c>
       <c r="F64" s="2">
@@ -8336,7 +8294,7 @@
       <c r="J64" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K64" s="26">
+      <c r="K64" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8350,10 +8308,10 @@
       <c r="C65" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="22">
         <v>190</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="22">
         <v>19</v>
       </c>
       <c r="F65" s="2">
@@ -8371,7 +8329,7 @@
       <c r="J65" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K65" s="26">
+      <c r="K65" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8385,10 +8343,10 @@
       <c r="C66" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="22">
         <v>221</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="22">
         <v>22.1</v>
       </c>
       <c r="F66" s="2">
@@ -8406,7 +8364,7 @@
       <c r="J66" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="23">
         <v>12354</v>
       </c>
     </row>
@@ -8420,10 +8378,10 @@
       <c r="C67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="22">
         <v>221</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="22">
         <v>22.1</v>
       </c>
       <c r="F67" s="2">
@@ -8441,7 +8399,7 @@
       <c r="J67" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K67" s="26">
+      <c r="K67" s="23">
         <v>12354</v>
       </c>
     </row>
@@ -8455,10 +8413,10 @@
       <c r="C68" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="22">
         <v>211</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="22">
         <v>21.1</v>
       </c>
       <c r="F68" s="2">
@@ -8476,7 +8434,7 @@
       <c r="J68" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K68" s="26">
+      <c r="K68" s="23">
         <v>507</v>
       </c>
     </row>
@@ -8490,10 +8448,10 @@
       <c r="C69" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="22">
         <v>170</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="22">
         <v>17</v>
       </c>
       <c r="F69" s="2">
@@ -8511,7 +8469,7 @@
       <c r="J69" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="23">
         <v>13767</v>
       </c>
     </row>
@@ -8525,10 +8483,10 @@
       <c r="C70" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="22">
         <v>418</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="22">
         <v>41.8</v>
       </c>
       <c r="F70" s="2">
@@ -8546,7 +8504,7 @@
       <c r="J70" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K70" s="23">
         <v>13767</v>
       </c>
     </row>
@@ -8560,10 +8518,10 @@
       <c r="C71" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="22">
         <v>62.9</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="22">
         <v>6.29</v>
       </c>
       <c r="F71" s="2">
@@ -8581,7 +8539,7 @@
       <c r="J71" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K71" s="26">
+      <c r="K71" s="23">
         <v>8951</v>
       </c>
     </row>
@@ -8595,10 +8553,10 @@
       <c r="C72" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="22">
         <v>235.6</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="22">
         <v>23.56</v>
       </c>
       <c r="F72" s="2">
@@ -8616,7 +8574,7 @@
       <c r="J72" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K72" s="23">
         <v>572</v>
       </c>
     </row>
@@ -8630,10 +8588,10 @@
       <c r="C73" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="22">
         <v>190</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="22">
         <v>19</v>
       </c>
       <c r="F73" s="2">
@@ -8651,7 +8609,7 @@
       <c r="J73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K73" s="26">
+      <c r="K73" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -8665,10 +8623,10 @@
       <c r="C74" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="22">
         <v>190</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="22">
         <v>19</v>
       </c>
       <c r="F74" s="2">
@@ -8686,7 +8644,7 @@
       <c r="J74" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -8700,10 +8658,10 @@
       <c r="C75" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="22">
         <v>190</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="22">
         <v>19</v>
       </c>
       <c r="F75" s="2">
@@ -8721,7 +8679,7 @@
       <c r="J75" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K75" s="26">
+      <c r="K75" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -8735,10 +8693,10 @@
       <c r="C76" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="22">
         <v>1153</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="22">
         <v>115.3</v>
       </c>
       <c r="F76" s="2">
@@ -8756,7 +8714,7 @@
       <c r="J76" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K76" s="26">
+      <c r="K76" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -8770,10 +8728,10 @@
       <c r="C77" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="22">
         <v>1153</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="22">
         <v>115.3</v>
       </c>
       <c r="F77" s="2">
@@ -8791,7 +8749,7 @@
       <c r="J77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K77" s="26">
+      <c r="K77" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -8805,10 +8763,10 @@
       <c r="C78" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="22">
         <v>7.39</v>
       </c>
       <c r="F78" s="2">
@@ -8826,7 +8784,7 @@
       <c r="J78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K78" s="26">
+      <c r="K78" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -8840,10 +8798,10 @@
       <c r="C79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="22">
         <v>7.39</v>
       </c>
       <c r="F79" s="2">
@@ -8861,7 +8819,7 @@
       <c r="J79" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K79" s="26">
+      <c r="K79" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -8875,10 +8833,10 @@
       <c r="C80" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="22">
         <v>7.39</v>
       </c>
       <c r="F80" s="2">
@@ -8896,7 +8854,7 @@
       <c r="J80" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K80" s="26">
+      <c r="K80" s="23">
         <v>572</v>
       </c>
     </row>
@@ -8910,10 +8868,10 @@
       <c r="C81" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="22">
         <v>7.39</v>
       </c>
       <c r="F81" s="2">
@@ -8931,7 +8889,7 @@
       <c r="J81" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K81" s="26">
+      <c r="K81" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -8945,10 +8903,10 @@
       <c r="C82" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="22">
         <v>7.39</v>
       </c>
       <c r="F82" s="2">
@@ -8966,7 +8924,7 @@
       <c r="J82" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K82" s="26">
+      <c r="K82" s="23">
         <v>572</v>
       </c>
     </row>
@@ -8980,10 +8938,10 @@
       <c r="C83" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="22">
         <v>73.900000000000006</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E83" s="22">
         <v>7.39</v>
       </c>
       <c r="F83" s="2">
@@ -9001,7 +8959,7 @@
       <c r="J83" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K83" s="26">
+      <c r="K83" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9015,10 +8973,10 @@
       <c r="C84" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="22">
         <v>24.12</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="22">
         <v>2.41</v>
       </c>
       <c r="F84" s="2">
@@ -9036,7 +8994,7 @@
       <c r="J84" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K84" s="26">
+      <c r="K84" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9050,10 +9008,10 @@
       <c r="C85" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="22">
         <v>341</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="22">
         <v>34.1</v>
       </c>
       <c r="F85" s="2">
@@ -9071,7 +9029,7 @@
       <c r="J85" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K85" s="26">
+      <c r="K85" s="23">
         <v>124</v>
       </c>
     </row>
@@ -9085,10 +9043,10 @@
       <c r="C86" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="22">
         <v>170</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="22">
         <v>17</v>
       </c>
       <c r="F86" s="2">
@@ -9106,7 +9064,7 @@
       <c r="J86" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K86" s="26">
+      <c r="K86" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -9120,10 +9078,10 @@
       <c r="C87" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D87" s="25">
+      <c r="D87" s="22">
         <v>310</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87" s="22">
         <v>31</v>
       </c>
       <c r="F87" s="2">
@@ -9141,7 +9099,7 @@
       <c r="J87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K87" s="26">
+      <c r="K87" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9155,10 +9113,10 @@
       <c r="C88" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D88" s="25">
+      <c r="D88" s="22">
         <v>170</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88" s="22">
         <v>17</v>
       </c>
       <c r="F88" s="2">
@@ -9176,7 +9134,7 @@
       <c r="J88" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K88" s="26">
+      <c r="K88" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -9190,10 +9148,10 @@
       <c r="C89" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D89" s="25">
+      <c r="D89" s="22">
         <v>170</v>
       </c>
-      <c r="E89" s="25">
+      <c r="E89" s="22">
         <v>17</v>
       </c>
       <c r="F89" s="2">
@@ -9211,7 +9169,7 @@
       <c r="J89" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K89" s="26">
+      <c r="K89" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -9225,10 +9183,10 @@
       <c r="C90" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D90" s="25">
+      <c r="D90" s="22">
         <v>170</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="22">
         <v>17</v>
       </c>
       <c r="F90" s="2">
@@ -9246,7 +9204,7 @@
       <c r="J90" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K90" s="26">
+      <c r="K90" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -9260,10 +9218,10 @@
       <c r="C91" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D91" s="25">
+      <c r="D91" s="22">
         <v>170</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="22">
         <v>17</v>
       </c>
       <c r="F91" s="2">
@@ -9281,7 +9239,7 @@
       <c r="J91" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K91" s="26">
+      <c r="K91" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -9295,10 +9253,10 @@
       <c r="C92" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="22">
         <v>170</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="22">
         <v>17</v>
       </c>
       <c r="F92" s="2">
@@ -9316,7 +9274,7 @@
       <c r="J92" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K92" s="26">
+      <c r="K92" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9330,10 +9288,10 @@
       <c r="C93" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="22">
         <v>170</v>
       </c>
-      <c r="E93" s="25">
+      <c r="E93" s="22">
         <v>17</v>
       </c>
       <c r="F93" s="2">
@@ -9351,7 +9309,7 @@
       <c r="J93" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K93" s="26">
+      <c r="K93" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -9365,10 +9323,10 @@
       <c r="C94" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="22">
         <v>170</v>
       </c>
-      <c r="E94" s="25">
+      <c r="E94" s="22">
         <v>17</v>
       </c>
       <c r="F94" s="2">
@@ -9386,7 +9344,7 @@
       <c r="J94" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K94" s="26">
+      <c r="K94" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -9400,10 +9358,10 @@
       <c r="C95" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D95" s="25">
+      <c r="D95" s="22">
         <v>341</v>
       </c>
-      <c r="E95" s="25">
+      <c r="E95" s="22">
         <v>34.1</v>
       </c>
       <c r="F95" s="2">
@@ -9421,7 +9379,7 @@
       <c r="J95" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K95" s="26">
+      <c r="K95" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9435,10 +9393,10 @@
       <c r="C96" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="22">
         <v>36</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="22">
         <v>3.6</v>
       </c>
       <c r="F96" s="2">
@@ -9456,7 +9414,7 @@
       <c r="J96" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K96" s="26">
+      <c r="K96" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -9470,10 +9428,10 @@
       <c r="C97" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="22">
         <v>36</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E97" s="22">
         <v>3.6</v>
       </c>
       <c r="F97" s="2">
@@ -9491,7 +9449,7 @@
       <c r="J97" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K97" s="26">
+      <c r="K97" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -9505,10 +9463,10 @@
       <c r="C98" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="22">
         <v>36</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="22">
         <v>3.6</v>
       </c>
       <c r="F98" s="2">
@@ -9526,7 +9484,7 @@
       <c r="J98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K98" s="26">
+      <c r="K98" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -9540,10 +9498,10 @@
       <c r="C99" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D99" s="22">
         <v>36</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E99" s="22">
         <v>3.6</v>
       </c>
       <c r="F99" s="2">
@@ -9561,7 +9519,7 @@
       <c r="J99" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K99" s="26">
+      <c r="K99" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -9575,10 +9533,10 @@
       <c r="C100" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D100" s="25">
+      <c r="D100" s="22">
         <v>490.66</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E100" s="22">
         <v>49.07</v>
       </c>
       <c r="F100" s="2">
@@ -9596,7 +9554,7 @@
       <c r="J100" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K100" s="26">
+      <c r="K100" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9610,10 +9568,10 @@
       <c r="C101" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D101" s="25">
+      <c r="D101" s="22">
         <v>1430</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E101" s="22">
         <v>143</v>
       </c>
       <c r="F101" s="2">
@@ -9631,7 +9589,7 @@
       <c r="J101" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K101" s="26">
+      <c r="K101" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -9645,10 +9603,10 @@
       <c r="C102" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="25">
+      <c r="D102" s="22">
         <v>70.95</v>
       </c>
-      <c r="E102" s="25">
+      <c r="E102" s="22">
         <v>7.1</v>
       </c>
       <c r="F102" s="2">
@@ -9666,7 +9624,7 @@
       <c r="J102" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K102" s="26">
+      <c r="K102" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9680,10 +9638,10 @@
       <c r="C103" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D103" s="25">
+      <c r="D103" s="22">
         <v>70</v>
       </c>
-      <c r="E103" s="25">
+      <c r="E103" s="22">
         <v>7</v>
       </c>
       <c r="F103" s="2">
@@ -9701,7 +9659,7 @@
       <c r="J103" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K103" s="26">
+      <c r="K103" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -9715,10 +9673,10 @@
       <c r="C104" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="22">
         <v>70</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="22">
         <v>7</v>
       </c>
       <c r="F104" s="2">
@@ -9736,7 +9694,7 @@
       <c r="J104" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K104" s="26">
+      <c r="K104" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -9750,10 +9708,10 @@
       <c r="C105" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D105" s="25">
+      <c r="D105" s="22">
         <v>70</v>
       </c>
-      <c r="E105" s="25">
+      <c r="E105" s="22">
         <v>7</v>
       </c>
       <c r="F105" s="2">
@@ -9771,7 +9729,7 @@
       <c r="J105" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K105" s="26">
+      <c r="K105" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9785,10 +9743,10 @@
       <c r="C106" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="22">
         <v>70.95</v>
       </c>
-      <c r="E106" s="25">
+      <c r="E106" s="22">
         <v>7.1</v>
       </c>
       <c r="F106" s="2">
@@ -9806,7 +9764,7 @@
       <c r="J106" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K106" s="26">
+      <c r="K106" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -9820,10 +9778,10 @@
       <c r="C107" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D107" s="25">
+      <c r="D107" s="22">
         <v>45</v>
       </c>
-      <c r="E107" s="25">
+      <c r="E107" s="22">
         <v>4.5</v>
       </c>
       <c r="F107" s="2">
@@ -9841,7 +9799,7 @@
       <c r="J107" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K107" s="26">
+      <c r="K107" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9855,10 +9813,10 @@
       <c r="C108" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="22">
         <v>45</v>
       </c>
-      <c r="E108" s="25">
+      <c r="E108" s="22">
         <v>4.5</v>
       </c>
       <c r="F108" s="2">
@@ -9876,7 +9834,7 @@
       <c r="J108" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K108" s="26">
+      <c r="K108" s="23">
         <v>572</v>
       </c>
     </row>
@@ -9890,10 +9848,10 @@
       <c r="C109" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="22">
         <v>45</v>
       </c>
-      <c r="E109" s="25">
+      <c r="E109" s="22">
         <v>4.5</v>
       </c>
       <c r="F109" s="2">
@@ -9911,7 +9869,7 @@
       <c r="J109" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K109" s="26">
+      <c r="K109" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -9925,10 +9883,10 @@
       <c r="C110" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="22">
         <v>45</v>
       </c>
-      <c r="E110" s="25">
+      <c r="E110" s="22">
         <v>4.5</v>
       </c>
       <c r="F110" s="2">
@@ -9946,7 +9904,7 @@
       <c r="J110" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K110" s="26">
+      <c r="K110" s="23">
         <v>17769</v>
       </c>
     </row>
@@ -9960,10 +9918,10 @@
       <c r="C111" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D111" s="25">
+      <c r="D111" s="22">
         <v>45</v>
       </c>
-      <c r="E111" s="25">
+      <c r="E111" s="22">
         <v>4.5</v>
       </c>
       <c r="F111" s="2">
@@ -9981,7 +9939,7 @@
       <c r="J111" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K111" s="26">
+      <c r="K111" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -9995,10 +9953,10 @@
       <c r="C112" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="22">
         <v>198.9</v>
       </c>
-      <c r="E112" s="25">
+      <c r="E112" s="22">
         <v>19.89</v>
       </c>
       <c r="F112" s="2">
@@ -10016,7 +9974,7 @@
       <c r="J112" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K112" s="26">
+      <c r="K112" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -10030,10 +9988,10 @@
       <c r="C113" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="E113" s="25">
+      <c r="E113" s="22">
         <v>7.59</v>
       </c>
       <c r="F113" s="2">
@@ -10051,7 +10009,7 @@
       <c r="J113" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K113" s="26">
+      <c r="K113" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -10065,10 +10023,10 @@
       <c r="C114" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="22">
         <v>98.45</v>
       </c>
-      <c r="E114" s="25">
+      <c r="E114" s="22">
         <v>9.85</v>
       </c>
       <c r="F114" s="2">
@@ -10086,7 +10044,7 @@
       <c r="J114" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K114" s="26">
+      <c r="K114" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10100,10 +10058,10 @@
       <c r="C115" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="22">
         <v>98.45</v>
       </c>
-      <c r="E115" s="25">
+      <c r="E115" s="22">
         <v>9.85</v>
       </c>
       <c r="F115" s="2">
@@ -10121,7 +10079,7 @@
       <c r="J115" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K115" s="26">
+      <c r="K115" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10135,10 +10093,10 @@
       <c r="C116" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="22">
         <v>98.45</v>
       </c>
-      <c r="E116" s="25">
+      <c r="E116" s="22">
         <v>9.85</v>
       </c>
       <c r="F116" s="2">
@@ -10156,7 +10114,7 @@
       <c r="J116" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K116" s="26">
+      <c r="K116" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -10170,10 +10128,10 @@
       <c r="C117" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="22">
         <v>98.45</v>
       </c>
-      <c r="E117" s="25">
+      <c r="E117" s="22">
         <v>9.85</v>
       </c>
       <c r="F117" s="2">
@@ -10191,7 +10149,7 @@
       <c r="J117" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K117" s="26">
+      <c r="K117" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10205,10 +10163,10 @@
       <c r="C118" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="22">
         <v>98.45</v>
       </c>
-      <c r="E118" s="25">
+      <c r="E118" s="22">
         <v>9.85</v>
       </c>
       <c r="F118" s="2">
@@ -10226,7 +10184,7 @@
       <c r="J118" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K118" s="26">
+      <c r="K118" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10240,10 +10198,10 @@
       <c r="C119" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="22">
         <v>98.45</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="22">
         <v>9.85</v>
       </c>
       <c r="F119" s="2">
@@ -10261,7 +10219,7 @@
       <c r="J119" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K119" s="26">
+      <c r="K119" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10275,10 +10233,10 @@
       <c r="C120" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="22">
         <v>98.45</v>
       </c>
-      <c r="E120" s="25">
+      <c r="E120" s="22">
         <v>9.85</v>
       </c>
       <c r="F120" s="2">
@@ -10296,7 +10254,7 @@
       <c r="J120" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K120" s="26">
+      <c r="K120" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10310,10 +10268,10 @@
       <c r="C121" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="22">
         <v>98.45</v>
       </c>
-      <c r="E121" s="25">
+      <c r="E121" s="22">
         <v>9.85</v>
       </c>
       <c r="F121" s="2">
@@ -10331,7 +10289,7 @@
       <c r="J121" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K121" s="26">
+      <c r="K121" s="23">
         <v>124</v>
       </c>
     </row>
@@ -10345,10 +10303,10 @@
       <c r="C122" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="22">
         <v>98.45</v>
       </c>
-      <c r="E122" s="25">
+      <c r="E122" s="22">
         <v>9.85</v>
       </c>
       <c r="F122" s="2">
@@ -10366,7 +10324,7 @@
       <c r="J122" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K122" s="26">
+      <c r="K122" s="23">
         <v>124</v>
       </c>
     </row>
@@ -10380,10 +10338,10 @@
       <c r="C123" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D123" s="22">
         <v>75.900000000000006</v>
       </c>
-      <c r="E123" s="25">
+      <c r="E123" s="22">
         <v>7.59</v>
       </c>
       <c r="F123" s="2">
@@ -10401,7 +10359,7 @@
       <c r="J123" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K123" s="26">
+      <c r="K123" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -10415,10 +10373,10 @@
       <c r="C124" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D124" s="25">
+      <c r="D124" s="22">
         <v>379</v>
       </c>
-      <c r="E124" s="25">
+      <c r="E124" s="22">
         <v>37.9</v>
       </c>
       <c r="F124" s="2">
@@ -10436,7 +10394,7 @@
       <c r="J124" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K124" s="26">
+      <c r="K124" s="23">
         <v>12465</v>
       </c>
     </row>
@@ -10450,10 +10408,10 @@
       <c r="C125" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D125" s="25">
+      <c r="D125" s="22">
         <v>114.55</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="22">
         <v>11.46</v>
       </c>
       <c r="F125" s="2">
@@ -10471,7 +10429,7 @@
       <c r="J125" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K125" s="26">
+      <c r="K125" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -10485,10 +10443,10 @@
       <c r="C126" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D126" s="25">
+      <c r="D126" s="22">
         <v>114.55</v>
       </c>
-      <c r="E126" s="25">
+      <c r="E126" s="22">
         <v>11.46</v>
       </c>
       <c r="F126" s="2">
@@ -10506,7 +10464,7 @@
       <c r="J126" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K126" s="26">
+      <c r="K126" s="23">
         <v>1761</v>
       </c>
     </row>
@@ -10520,10 +10478,10 @@
       <c r="C127" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D127" s="25">
+      <c r="D127" s="22">
         <v>110</v>
       </c>
-      <c r="E127" s="25">
+      <c r="E127" s="22">
         <v>11</v>
       </c>
       <c r="F127" s="2">
@@ -10541,7 +10499,7 @@
       <c r="J127" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K127" s="26">
+      <c r="K127" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -10555,10 +10513,10 @@
       <c r="C128" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D128" s="25">
+      <c r="D128" s="22">
         <v>127.28</v>
       </c>
-      <c r="E128" s="25">
+      <c r="E128" s="22">
         <v>12.73</v>
       </c>
       <c r="F128" s="2">
@@ -10576,7 +10534,7 @@
       <c r="J128" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K128" s="26">
+      <c r="K128" s="23">
         <v>8961</v>
       </c>
     </row>
@@ -10590,10 +10548,10 @@
       <c r="C129" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D129" s="25">
+      <c r="D129" s="22">
         <v>223</v>
       </c>
-      <c r="E129" s="25">
+      <c r="E129" s="22">
         <v>22.3</v>
       </c>
       <c r="F129" s="2">
@@ -10611,7 +10569,7 @@
       <c r="J129" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K129" s="26">
+      <c r="K129" s="23">
         <v>572</v>
       </c>
     </row>
@@ -10625,10 +10583,10 @@
       <c r="C130" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D130" s="25">
+      <c r="D130" s="22">
         <v>84.9</v>
       </c>
-      <c r="E130" s="25">
+      <c r="E130" s="22">
         <v>8.49</v>
       </c>
       <c r="F130" s="2">
@@ -10646,7 +10604,7 @@
       <c r="J130" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K130" s="26">
+      <c r="K130" s="23">
         <v>125</v>
       </c>
     </row>
@@ -10660,10 +10618,10 @@
       <c r="C131" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D131" s="25">
+      <c r="D131" s="22">
         <v>52</v>
       </c>
-      <c r="E131" s="25">
+      <c r="E131" s="22">
         <v>5.2</v>
       </c>
       <c r="F131" s="2">
@@ -10681,7 +10639,7 @@
       <c r="J131" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K131" s="26">
+      <c r="K131" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -10695,10 +10653,10 @@
       <c r="C132" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D132" s="25">
+      <c r="D132" s="22">
         <v>116.2</v>
       </c>
-      <c r="E132" s="25">
+      <c r="E132" s="22">
         <v>11.62</v>
       </c>
       <c r="F132" s="2">
@@ -10716,7 +10674,7 @@
       <c r="J132" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K132" s="26">
+      <c r="K132" s="23">
         <v>572</v>
       </c>
     </row>
@@ -10730,10 +10688,10 @@
       <c r="C133" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D133" s="25">
+      <c r="D133" s="22">
         <v>116.2</v>
       </c>
-      <c r="E133" s="25">
+      <c r="E133" s="22">
         <v>11.62</v>
       </c>
       <c r="F133" s="2">
@@ -10751,7 +10709,7 @@
       <c r="J133" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K133" s="26">
+      <c r="K133" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -10765,10 +10723,10 @@
       <c r="C134" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D134" s="25">
+      <c r="D134" s="22">
         <v>116.2</v>
       </c>
-      <c r="E134" s="25">
+      <c r="E134" s="22">
         <v>11.62</v>
       </c>
       <c r="F134" s="2">
@@ -10786,7 +10744,7 @@
       <c r="J134" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K134" s="26">
+      <c r="K134" s="23">
         <v>572</v>
       </c>
     </row>
@@ -10800,10 +10758,10 @@
       <c r="C135" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D135" s="25">
+      <c r="D135" s="22">
         <v>181.7</v>
       </c>
-      <c r="E135" s="25">
+      <c r="E135" s="22">
         <v>18.170000000000002</v>
       </c>
       <c r="F135" s="2">
@@ -10821,7 +10779,7 @@
       <c r="J135" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K135" s="26">
+      <c r="K135" s="23">
         <v>572</v>
       </c>
     </row>
@@ -10835,10 +10793,10 @@
       <c r="C136" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D136" s="25">
+      <c r="D136" s="22">
         <v>274.3</v>
       </c>
-      <c r="E136" s="25">
+      <c r="E136" s="22">
         <v>27.43</v>
       </c>
       <c r="F136" s="2">
@@ -10856,7 +10814,7 @@
       <c r="J136" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K136" s="26">
+      <c r="K136" s="23">
         <v>572</v>
       </c>
     </row>
@@ -10870,10 +10828,10 @@
       <c r="C137" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D137" s="25">
+      <c r="D137" s="22">
         <v>103.5</v>
       </c>
-      <c r="E137" s="25">
+      <c r="E137" s="22">
         <v>10.35</v>
       </c>
       <c r="F137" s="2">
@@ -10891,7 +10849,7 @@
       <c r="J137" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K137" s="26">
+      <c r="K137" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -10905,10 +10863,10 @@
       <c r="C138" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D138" s="25">
+      <c r="D138" s="22">
         <v>103.5</v>
       </c>
-      <c r="E138" s="25">
+      <c r="E138" s="22">
         <v>10.35</v>
       </c>
       <c r="F138" s="2">
@@ -10926,7 +10884,7 @@
       <c r="J138" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K138" s="26">
+      <c r="K138" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -10940,10 +10898,10 @@
       <c r="C139" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D139" s="25">
+      <c r="D139" s="22">
         <v>114.88</v>
       </c>
-      <c r="E139" s="25">
+      <c r="E139" s="22">
         <v>11.49</v>
       </c>
       <c r="F139" s="2">
@@ -10961,7 +10919,7 @@
       <c r="J139" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K139" s="26">
+      <c r="K139" s="23">
         <v>509</v>
       </c>
     </row>
@@ -10975,10 +10933,10 @@
       <c r="C140" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D140" s="25">
+      <c r="D140" s="22">
         <v>132</v>
       </c>
-      <c r="E140" s="25">
+      <c r="E140" s="22">
         <v>13.2</v>
       </c>
       <c r="F140" s="2">
@@ -10996,7 +10954,7 @@
       <c r="J140" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K140" s="26">
+      <c r="K140" s="23">
         <v>572</v>
       </c>
     </row>
@@ -11010,10 +10968,10 @@
       <c r="C141" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D141" s="25">
+      <c r="D141" s="22">
         <v>132</v>
       </c>
-      <c r="E141" s="25">
+      <c r="E141" s="22">
         <v>13.2</v>
       </c>
       <c r="F141" s="2">
@@ -11031,7 +10989,7 @@
       <c r="J141" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K141" s="26">
+      <c r="K141" s="23">
         <v>572</v>
       </c>
     </row>
@@ -11045,10 +11003,10 @@
       <c r="C142" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D142" s="25">
+      <c r="D142" s="22">
         <v>3910</v>
       </c>
-      <c r="E142" s="25">
+      <c r="E142" s="22">
         <v>391</v>
       </c>
       <c r="F142" s="2">
@@ -11066,7 +11024,7 @@
       <c r="J142" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K142" s="26">
+      <c r="K142" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -11080,10 +11038,10 @@
       <c r="C143" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D143" s="25">
+      <c r="D143" s="22">
         <v>337.05</v>
       </c>
-      <c r="E143" s="25">
+      <c r="E143" s="22">
         <v>33.71</v>
       </c>
       <c r="F143" s="2">
@@ -11101,7 +11059,7 @@
       <c r="J143" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K143" s="26">
+      <c r="K143" s="23">
         <v>125</v>
       </c>
     </row>
@@ -11115,10 +11073,10 @@
       <c r="C144" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D144" s="25">
+      <c r="D144" s="22">
         <v>405.3</v>
       </c>
-      <c r="E144" s="25">
+      <c r="E144" s="22">
         <v>40.53</v>
       </c>
       <c r="F144" s="2">
@@ -11136,7 +11094,7 @@
       <c r="J144" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K144" s="26">
+      <c r="K144" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -11150,10 +11108,10 @@
       <c r="C145" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D145" s="25">
+      <c r="D145" s="22">
         <v>405.3</v>
       </c>
-      <c r="E145" s="25">
+      <c r="E145" s="22">
         <v>40.53</v>
       </c>
       <c r="F145" s="2">
@@ -11171,7 +11129,7 @@
       <c r="J145" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K145" s="26">
+      <c r="K145" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -11185,10 +11143,10 @@
       <c r="C146" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D146" s="25">
+      <c r="D146" s="22">
         <v>455.7</v>
       </c>
-      <c r="E146" s="25">
+      <c r="E146" s="22">
         <v>45.57</v>
       </c>
       <c r="F146" s="2">
@@ -11206,7 +11164,7 @@
       <c r="J146" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K146" s="26">
+      <c r="K146" s="23">
         <v>124</v>
       </c>
     </row>
@@ -11220,10 +11178,10 @@
       <c r="C147" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="25">
+      <c r="D147" s="22">
         <v>455.7</v>
       </c>
-      <c r="E147" s="25">
+      <c r="E147" s="22">
         <v>45.57</v>
       </c>
       <c r="F147" s="2">
@@ -11241,7 +11199,7 @@
       <c r="J147" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K147" s="26">
+      <c r="K147" s="23">
         <v>572</v>
       </c>
     </row>
@@ -11255,10 +11213,10 @@
       <c r="C148" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D148" s="25">
+      <c r="D148" s="22">
         <v>567</v>
       </c>
-      <c r="E148" s="25">
+      <c r="E148" s="22">
         <v>56.7</v>
       </c>
       <c r="F148" s="2">
@@ -11276,7 +11234,7 @@
       <c r="J148" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K148" s="26">
+      <c r="K148" s="23">
         <v>572</v>
       </c>
     </row>
@@ -11290,10 +11248,10 @@
       <c r="C149" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D149" s="25">
+      <c r="D149" s="22">
         <v>384</v>
       </c>
-      <c r="E149" s="25">
+      <c r="E149" s="22">
         <v>38.4</v>
       </c>
       <c r="F149" s="2">
@@ -11311,7 +11269,7 @@
       <c r="J149" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K149" s="26">
+      <c r="K149" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -11325,10 +11283,10 @@
       <c r="C150" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D150" s="22">
         <v>397</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E150" s="22">
         <v>39.700000000000003</v>
       </c>
       <c r="F150" s="2">
@@ -11346,7 +11304,7 @@
       <c r="J150" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K150" s="26">
+      <c r="K150" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -11360,10 +11318,10 @@
       <c r="C151" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D151" s="25">
+      <c r="D151" s="22">
         <v>442</v>
       </c>
-      <c r="E151" s="25">
+      <c r="E151" s="22">
         <v>44.2</v>
       </c>
       <c r="F151" s="2">
@@ -11381,7 +11339,7 @@
       <c r="J151" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K151" s="26">
+      <c r="K151" s="23">
         <v>17330</v>
       </c>
     </row>
@@ -11395,10 +11353,10 @@
       <c r="C152" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D152" s="25">
+      <c r="D152" s="22">
         <v>442</v>
       </c>
-      <c r="E152" s="25">
+      <c r="E152" s="22">
         <v>44.2</v>
       </c>
       <c r="F152" s="2">
@@ -11416,7 +11374,7 @@
       <c r="J152" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K152" s="26">
+      <c r="K152" s="23">
         <v>17326</v>
       </c>
     </row>
@@ -11430,10 +11388,10 @@
       <c r="C153" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D153" s="25">
+      <c r="D153" s="22">
         <v>442</v>
       </c>
-      <c r="E153" s="25">
+      <c r="E153" s="22">
         <v>44.2</v>
       </c>
       <c r="F153" s="2">
@@ -11451,7 +11409,7 @@
       <c r="J153" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K153" s="26">
+      <c r="K153" s="23">
         <v>17326</v>
       </c>
     </row>
@@ -11465,10 +11423,10 @@
       <c r="C154" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D154" s="25">
+      <c r="D154" s="22">
         <v>442</v>
       </c>
-      <c r="E154" s="25">
+      <c r="E154" s="22">
         <v>44.2</v>
       </c>
       <c r="F154" s="2">
@@ -11486,7 +11444,7 @@
       <c r="J154" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K154" s="26">
+      <c r="K154" s="23">
         <v>17329</v>
       </c>
     </row>
@@ -11500,10 +11458,10 @@
       <c r="C155" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D155" s="25">
+      <c r="D155" s="22">
         <v>195</v>
       </c>
-      <c r="E155" s="25">
+      <c r="E155" s="22">
         <v>19.5</v>
       </c>
       <c r="F155" s="2">
@@ -11521,7 +11479,7 @@
       <c r="J155" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K155" s="26">
+      <c r="K155" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -11535,10 +11493,10 @@
       <c r="C156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="25">
+      <c r="D156" s="22">
         <v>168.95</v>
       </c>
-      <c r="E156" s="25">
+      <c r="E156" s="22">
         <v>16.899999999999999</v>
       </c>
       <c r="F156" s="2">
@@ -11556,7 +11514,7 @@
       <c r="J156" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K156" s="26">
+      <c r="K156" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -11570,10 +11528,10 @@
       <c r="C157" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D157" s="25">
+      <c r="D157" s="22">
         <v>550</v>
       </c>
-      <c r="E157" s="25">
+      <c r="E157" s="22">
         <v>55</v>
       </c>
       <c r="F157" s="2">
@@ -11591,7 +11549,7 @@
       <c r="J157" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K157" s="26">
+      <c r="K157" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -11605,10 +11563,10 @@
       <c r="C158" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D158" s="25">
+      <c r="D158" s="22">
         <v>2336.29</v>
       </c>
-      <c r="E158" s="25">
+      <c r="E158" s="22">
         <v>233.63</v>
       </c>
       <c r="F158" s="2">
@@ -11626,7 +11584,7 @@
       <c r="J158" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K158" s="26">
+      <c r="K158" s="23">
         <v>125</v>
       </c>
     </row>
@@ -11640,10 +11598,10 @@
       <c r="C159" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="25">
+      <c r="D159" s="22">
         <v>486.06</v>
       </c>
-      <c r="E159" s="25">
+      <c r="E159" s="22">
         <v>48.61</v>
       </c>
       <c r="F159" s="2">
@@ -11661,7 +11619,7 @@
       <c r="J159" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K159" s="26">
+      <c r="K159" s="23">
         <v>125</v>
       </c>
     </row>
@@ -11675,10 +11633,10 @@
       <c r="C160" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D160" s="25">
+      <c r="D160" s="22">
         <v>148.96</v>
       </c>
-      <c r="E160" s="25">
+      <c r="E160" s="22">
         <v>14.9</v>
       </c>
       <c r="F160" s="2">
@@ -11696,7 +11654,7 @@
       <c r="J160" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K160" s="26">
+      <c r="K160" s="23">
         <v>1761</v>
       </c>
     </row>
@@ -11710,10 +11668,10 @@
       <c r="C161" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D161" s="25">
+      <c r="D161" s="22">
         <v>222.92</v>
       </c>
-      <c r="E161" s="25">
+      <c r="E161" s="22">
         <v>22.29</v>
       </c>
       <c r="F161" s="2">
@@ -11731,7 +11689,7 @@
       <c r="J161" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="K161" s="26">
+      <c r="K161" s="23">
         <v>8953</v>
       </c>
     </row>
@@ -11745,10 +11703,10 @@
       <c r="C162" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D162" s="25">
+      <c r="D162" s="22">
         <v>148.96</v>
       </c>
-      <c r="E162" s="25">
+      <c r="E162" s="22">
         <v>14.9</v>
       </c>
       <c r="F162" s="2">
@@ -11766,7 +11724,7 @@
       <c r="J162" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K162" s="26">
+      <c r="K162" s="23">
         <v>1761</v>
       </c>
     </row>
@@ -11780,10 +11738,10 @@
       <c r="C163" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D163" s="25">
+      <c r="D163" s="22">
         <v>348</v>
       </c>
-      <c r="E163" s="25">
+      <c r="E163" s="22">
         <v>34.799999999999997</v>
       </c>
       <c r="F163" s="2">
@@ -11801,7 +11759,7 @@
       <c r="J163" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K163" s="26">
+      <c r="K163" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -11815,10 +11773,10 @@
       <c r="C164" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164" s="22">
         <v>475.02</v>
       </c>
-      <c r="E164" s="25">
+      <c r="E164" s="22">
         <v>47.5</v>
       </c>
       <c r="F164" s="2">
@@ -11836,7 +11794,7 @@
       <c r="J164" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K164" s="26">
+      <c r="K164" s="23">
         <v>572</v>
       </c>
     </row>
@@ -11850,10 +11808,10 @@
       <c r="C165" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D165" s="25">
+      <c r="D165" s="22">
         <v>190</v>
       </c>
-      <c r="E165" s="25">
+      <c r="E165" s="22">
         <v>19</v>
       </c>
       <c r="F165" s="2">
@@ -11871,7 +11829,7 @@
       <c r="J165" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K165" s="26">
+      <c r="K165" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -11885,10 +11843,10 @@
       <c r="C166" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D166" s="25">
+      <c r="D166" s="22">
         <v>190</v>
       </c>
-      <c r="E166" s="25">
+      <c r="E166" s="22">
         <v>19</v>
       </c>
       <c r="F166" s="2">
@@ -11906,7 +11864,7 @@
       <c r="J166" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K166" s="26">
+      <c r="K166" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -11920,10 +11878,10 @@
       <c r="C167" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D167" s="25">
+      <c r="D167" s="22">
         <v>530</v>
       </c>
-      <c r="E167" s="25">
+      <c r="E167" s="22">
         <v>53</v>
       </c>
       <c r="F167" s="2">
@@ -11941,7 +11899,7 @@
       <c r="J167" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K167" s="26">
+      <c r="K167" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -11955,10 +11913,10 @@
       <c r="C168" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D168" s="25">
+      <c r="D168" s="22">
         <v>238</v>
       </c>
-      <c r="E168" s="25">
+      <c r="E168" s="22">
         <v>23.8</v>
       </c>
       <c r="F168" s="2">
@@ -11976,7 +11934,7 @@
       <c r="J168" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K168" s="26">
+      <c r="K168" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -11990,10 +11948,10 @@
       <c r="C169" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D169" s="25">
+      <c r="D169" s="22">
         <v>238</v>
       </c>
-      <c r="E169" s="25">
+      <c r="E169" s="22">
         <v>23.8</v>
       </c>
       <c r="F169" s="2">
@@ -12011,7 +11969,7 @@
       <c r="J169" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K169" s="26">
+      <c r="K169" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -12025,10 +11983,10 @@
       <c r="C170" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D170" s="25">
+      <c r="D170" s="22">
         <v>238</v>
       </c>
-      <c r="E170" s="25">
+      <c r="E170" s="22">
         <v>23.8</v>
       </c>
       <c r="F170" s="2">
@@ -12046,7 +12004,7 @@
       <c r="J170" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K170" s="26">
+      <c r="K170" s="23">
         <v>572</v>
       </c>
     </row>
@@ -12060,10 +12018,10 @@
       <c r="C171" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D171" s="25">
+      <c r="D171" s="22">
         <v>725.24</v>
       </c>
-      <c r="E171" s="25">
+      <c r="E171" s="22">
         <v>72.52</v>
       </c>
       <c r="F171" s="2">
@@ -12081,7 +12039,7 @@
       <c r="J171" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K171" s="26">
+      <c r="K171" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -12095,10 +12053,10 @@
       <c r="C172" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D172" s="25">
+      <c r="D172" s="22">
         <v>725.24</v>
       </c>
-      <c r="E172" s="25">
+      <c r="E172" s="22">
         <v>72.52</v>
       </c>
       <c r="F172" s="2">
@@ -12116,7 +12074,7 @@
       <c r="J172" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K172" s="26">
+      <c r="K172" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -12130,10 +12088,10 @@
       <c r="C173" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D173" s="25">
+      <c r="D173" s="22">
         <v>450</v>
       </c>
-      <c r="E173" s="25">
+      <c r="E173" s="22">
         <v>45</v>
       </c>
       <c r="F173" s="2">
@@ -12151,7 +12109,7 @@
       <c r="J173" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K173" s="26">
+      <c r="K173" s="23">
         <v>11740</v>
       </c>
     </row>
@@ -12165,10 +12123,10 @@
       <c r="C174" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D174" s="25">
+      <c r="D174" s="22">
         <v>450</v>
       </c>
-      <c r="E174" s="25">
+      <c r="E174" s="22">
         <v>45</v>
       </c>
       <c r="F174" s="2">
@@ -12186,7 +12144,7 @@
       <c r="J174" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K174" s="26">
+      <c r="K174" s="23">
         <v>572</v>
       </c>
     </row>
@@ -12200,10 +12158,10 @@
       <c r="C175" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D175" s="25">
+      <c r="D175" s="22">
         <v>221</v>
       </c>
-      <c r="E175" s="25">
+      <c r="E175" s="22">
         <v>22.1</v>
       </c>
       <c r="F175" s="2">
@@ -12221,7 +12179,7 @@
       <c r="J175" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K175" s="26">
+      <c r="K175" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -12235,10 +12193,10 @@
       <c r="C176" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D176" s="25">
+      <c r="D176" s="22">
         <v>221</v>
       </c>
-      <c r="E176" s="25">
+      <c r="E176" s="22">
         <v>22.1</v>
       </c>
       <c r="F176" s="2">
@@ -12256,7 +12214,7 @@
       <c r="J176" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K176" s="26">
+      <c r="K176" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -12270,10 +12228,10 @@
       <c r="C177" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D177" s="25">
+      <c r="D177" s="22">
         <v>224.8</v>
       </c>
-      <c r="E177" s="25">
+      <c r="E177" s="22">
         <v>22.48</v>
       </c>
       <c r="F177" s="2">
@@ -12291,7 +12249,7 @@
       <c r="J177" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K177" s="26">
+      <c r="K177" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -12305,10 +12263,10 @@
       <c r="C178" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D178" s="25">
+      <c r="D178" s="22">
         <v>210</v>
       </c>
-      <c r="E178" s="25">
+      <c r="E178" s="22">
         <v>21</v>
       </c>
       <c r="F178" s="2">
@@ -12326,7 +12284,7 @@
       <c r="J178" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K178" s="26">
+      <c r="K178" s="23">
         <v>11225</v>
       </c>
     </row>
@@ -12340,10 +12298,10 @@
       <c r="C179" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D179" s="25">
+      <c r="D179" s="22">
         <v>13406.45</v>
       </c>
-      <c r="E179" s="25">
+      <c r="E179" s="22">
         <v>1340.65</v>
       </c>
       <c r="F179" s="2">
@@ -12361,7 +12319,7 @@
       <c r="J179" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K179" s="26">
+      <c r="K179" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -12375,10 +12333,10 @@
       <c r="C180" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D180" s="25">
+      <c r="D180" s="22">
         <v>210</v>
       </c>
-      <c r="E180" s="25">
+      <c r="E180" s="22">
         <v>21</v>
       </c>
       <c r="F180" s="2">
@@ -12396,7 +12354,7 @@
       <c r="J180" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K180" s="26">
+      <c r="K180" s="23">
         <v>125</v>
       </c>
     </row>
@@ -12410,10 +12368,10 @@
       <c r="C181" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D181" s="25">
+      <c r="D181" s="22">
         <v>1495</v>
       </c>
-      <c r="E181" s="25">
+      <c r="E181" s="22">
         <v>149.5</v>
       </c>
       <c r="F181" s="2">
@@ -12431,7 +12389,7 @@
       <c r="J181" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K181" s="26">
+      <c r="K181" s="23">
         <v>572</v>
       </c>
     </row>
@@ -12445,10 +12403,10 @@
       <c r="C182" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D182" s="25">
+      <c r="D182" s="22">
         <v>221</v>
       </c>
-      <c r="E182" s="25">
+      <c r="E182" s="22">
         <v>22.1</v>
       </c>
       <c r="F182" s="2">
@@ -12466,7 +12424,7 @@
       <c r="J182" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K182" s="26">
+      <c r="K182" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -12480,10 +12438,10 @@
       <c r="C183" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D183" s="25">
+      <c r="D183" s="22">
         <v>221</v>
       </c>
-      <c r="E183" s="25">
+      <c r="E183" s="22">
         <v>22.1</v>
       </c>
       <c r="F183" s="2">
@@ -12501,7 +12459,7 @@
       <c r="J183" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K183" s="26">
+      <c r="K183" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -12515,10 +12473,10 @@
       <c r="C184" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D184" s="25">
+      <c r="D184" s="22">
         <v>24609.5</v>
       </c>
-      <c r="E184" s="25">
+      <c r="E184" s="22">
         <v>4921.8999999999996</v>
       </c>
       <c r="F184" s="2">
@@ -12536,7 +12494,7 @@
       <c r="J184" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K184" s="26">
+      <c r="K184" s="23">
         <v>8961</v>
       </c>
     </row>
@@ -12550,10 +12508,10 @@
       <c r="C185" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D185" s="25">
+      <c r="D185" s="22">
         <v>11209.17</v>
       </c>
-      <c r="E185" s="25">
+      <c r="E185" s="22">
         <v>2241.83</v>
       </c>
       <c r="F185" s="2">
@@ -12571,7 +12529,7 @@
       <c r="J185" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K185" s="26">
+      <c r="K185" s="23">
         <v>8961</v>
       </c>
     </row>
@@ -12585,10 +12543,10 @@
       <c r="C186" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D186" s="25">
+      <c r="D186" s="22">
         <v>211</v>
       </c>
-      <c r="E186" s="25">
+      <c r="E186" s="22">
         <v>21.1</v>
       </c>
       <c r="F186" s="2">
@@ -12606,7 +12564,7 @@
       <c r="J186" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K186" s="26">
+      <c r="K186" s="23">
         <v>572</v>
       </c>
     </row>
@@ -12620,10 +12578,10 @@
       <c r="C187" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D187" s="25">
+      <c r="D187" s="22">
         <v>1603</v>
       </c>
-      <c r="E187" s="25">
+      <c r="E187" s="22">
         <v>160.30000000000001</v>
       </c>
       <c r="F187" s="2">
@@ -12641,7 +12599,7 @@
       <c r="J187" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K187" s="26">
+      <c r="K187" s="23">
         <v>125</v>
       </c>
     </row>
@@ -12655,10 +12613,10 @@
       <c r="C188" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D188" s="25">
+      <c r="D188" s="22">
         <v>211</v>
       </c>
-      <c r="E188" s="25">
+      <c r="E188" s="22">
         <v>21.1</v>
       </c>
       <c r="F188" s="2">
@@ -12676,7 +12634,7 @@
       <c r="J188" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K188" s="26">
+      <c r="K188" s="23">
         <v>572</v>
       </c>
     </row>
@@ -12690,10 +12648,10 @@
       <c r="C189" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D189" s="25">
+      <c r="D189" s="22">
         <v>211</v>
       </c>
-      <c r="E189" s="25">
+      <c r="E189" s="22">
         <v>21.1</v>
       </c>
       <c r="F189" s="2">
@@ -12711,7 +12669,7 @@
       <c r="J189" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K189" s="26">
+      <c r="K189" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -12725,10 +12683,10 @@
       <c r="C190" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D190" s="25">
+      <c r="D190" s="22">
         <v>1221.5999999999999</v>
       </c>
-      <c r="E190" s="25">
+      <c r="E190" s="22">
         <v>122.16</v>
       </c>
       <c r="F190" s="2">
@@ -12746,7 +12704,7 @@
       <c r="J190" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K190" s="26">
+      <c r="K190" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -12760,10 +12718,10 @@
       <c r="C191" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D191" s="25">
+      <c r="D191" s="22">
         <v>1221.5999999999999</v>
       </c>
-      <c r="E191" s="25">
+      <c r="E191" s="22">
         <v>122.16</v>
       </c>
       <c r="F191" s="2">
@@ -12781,7 +12739,7 @@
       <c r="J191" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K191" s="26">
+      <c r="K191" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -12795,10 +12753,10 @@
       <c r="C192" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D192" s="25">
+      <c r="D192" s="22">
         <v>500</v>
       </c>
-      <c r="E192" s="25">
+      <c r="E192" s="22">
         <v>50</v>
       </c>
       <c r="F192" s="2">
@@ -12816,7 +12774,7 @@
       <c r="J192" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K192" s="26">
+      <c r="K192" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -12830,10 +12788,10 @@
       <c r="C193" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D193" s="25">
+      <c r="D193" s="22">
         <v>500</v>
       </c>
-      <c r="E193" s="25">
+      <c r="E193" s="22">
         <v>50</v>
       </c>
       <c r="F193" s="2">
@@ -12851,7 +12809,7 @@
       <c r="J193" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K193" s="26">
+      <c r="K193" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -12865,10 +12823,10 @@
       <c r="C194" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D194" s="25">
+      <c r="D194" s="22">
         <v>500</v>
       </c>
-      <c r="E194" s="25">
+      <c r="E194" s="22">
         <v>50</v>
       </c>
       <c r="F194" s="2">
@@ -12886,7 +12844,7 @@
       <c r="J194" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K194" s="26">
+      <c r="K194" s="23">
         <v>13074</v>
       </c>
     </row>
@@ -12900,10 +12858,10 @@
       <c r="C195" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D195" s="25">
+      <c r="D195" s="22">
         <v>500</v>
       </c>
-      <c r="E195" s="25">
+      <c r="E195" s="22">
         <v>50</v>
       </c>
       <c r="F195" s="2">
@@ -12921,7 +12879,7 @@
       <c r="J195" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K195" s="26">
+      <c r="K195" s="23">
         <v>17330</v>
       </c>
     </row>
@@ -12935,10 +12893,10 @@
       <c r="C196" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D196" s="25">
+      <c r="D196" s="22">
         <v>500</v>
       </c>
-      <c r="E196" s="25">
+      <c r="E196" s="22">
         <v>50</v>
       </c>
       <c r="F196" s="2">
@@ -12956,7 +12914,7 @@
       <c r="J196" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K196" s="26">
+      <c r="K196" s="23">
         <v>508</v>
       </c>
     </row>
@@ -12970,10 +12928,10 @@
       <c r="C197" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D197" s="25">
+      <c r="D197" s="22">
         <v>500</v>
       </c>
-      <c r="E197" s="25">
+      <c r="E197" s="22">
         <v>50</v>
       </c>
       <c r="F197" s="2">
@@ -12991,7 +12949,7 @@
       <c r="J197" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K197" s="26">
+      <c r="K197" s="23">
         <v>508</v>
       </c>
     </row>
@@ -13005,10 +12963,10 @@
       <c r="C198" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D198" s="25">
+      <c r="D198" s="22">
         <v>500</v>
       </c>
-      <c r="E198" s="25">
+      <c r="E198" s="22">
         <v>50</v>
       </c>
       <c r="F198" s="2">
@@ -13026,7 +12984,7 @@
       <c r="J198" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K198" s="26">
+      <c r="K198" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -13040,10 +12998,10 @@
       <c r="C199" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D199" s="25">
+      <c r="D199" s="22">
         <v>500</v>
       </c>
-      <c r="E199" s="25">
+      <c r="E199" s="22">
         <v>50</v>
       </c>
       <c r="F199" s="2">
@@ -13061,7 +13019,7 @@
       <c r="J199" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K199" s="26">
+      <c r="K199" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -13075,10 +13033,10 @@
       <c r="C200" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D200" s="25">
+      <c r="D200" s="22">
         <v>500</v>
       </c>
-      <c r="E200" s="25">
+      <c r="E200" s="22">
         <v>50</v>
       </c>
       <c r="F200" s="2">
@@ -13096,7 +13054,7 @@
       <c r="J200" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K200" s="26">
+      <c r="K200" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -13110,10 +13068,10 @@
       <c r="C201" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D201" s="25">
+      <c r="D201" s="22">
         <v>500</v>
       </c>
-      <c r="E201" s="25">
+      <c r="E201" s="22">
         <v>50</v>
       </c>
       <c r="F201" s="2">
@@ -13131,7 +13089,7 @@
       <c r="J201" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K201" s="26">
+      <c r="K201" s="23">
         <v>572</v>
       </c>
     </row>
@@ -13145,10 +13103,10 @@
       <c r="C202" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D202" s="25">
+      <c r="D202" s="22">
         <v>500</v>
       </c>
-      <c r="E202" s="25">
+      <c r="E202" s="22">
         <v>50</v>
       </c>
       <c r="F202" s="2">
@@ -13166,7 +13124,7 @@
       <c r="J202" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K202" s="26">
+      <c r="K202" s="23">
         <v>572</v>
       </c>
     </row>
@@ -13180,10 +13138,10 @@
       <c r="C203" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D203" s="25">
+      <c r="D203" s="22">
         <v>500</v>
       </c>
-      <c r="E203" s="25">
+      <c r="E203" s="22">
         <v>50</v>
       </c>
       <c r="F203" s="2">
@@ -13201,7 +13159,7 @@
       <c r="J203" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K203" s="26">
+      <c r="K203" s="23">
         <v>17328</v>
       </c>
     </row>
@@ -13215,10 +13173,10 @@
       <c r="C204" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D204" s="25">
+      <c r="D204" s="22">
         <v>500</v>
       </c>
-      <c r="E204" s="25">
+      <c r="E204" s="22">
         <v>50</v>
       </c>
       <c r="F204" s="2">
@@ -13236,7 +13194,7 @@
       <c r="J204" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K204" s="26">
+      <c r="K204" s="23">
         <v>572</v>
       </c>
     </row>
@@ -13250,10 +13208,10 @@
       <c r="C205" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D205" s="25">
+      <c r="D205" s="22">
         <v>500</v>
       </c>
-      <c r="E205" s="25">
+      <c r="E205" s="22">
         <v>50</v>
       </c>
       <c r="F205" s="2">
@@ -13271,7 +13229,7 @@
       <c r="J205" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K205" s="26">
+      <c r="K205" s="23">
         <v>8951</v>
       </c>
     </row>
@@ -13285,10 +13243,10 @@
       <c r="C206" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D206" s="25">
+      <c r="D206" s="22">
         <v>500</v>
       </c>
-      <c r="E206" s="25">
+      <c r="E206" s="22">
         <v>50</v>
       </c>
       <c r="F206" s="2">
@@ -13306,7 +13264,7 @@
       <c r="J206" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K206" s="26">
+      <c r="K206" s="23">
         <v>8951</v>
       </c>
     </row>
@@ -13320,10 +13278,10 @@
       <c r="C207" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D207" s="25">
+      <c r="D207" s="22">
         <v>500</v>
       </c>
-      <c r="E207" s="25">
+      <c r="E207" s="22">
         <v>50</v>
       </c>
       <c r="F207" s="2">
@@ -13341,7 +13299,7 @@
       <c r="J207" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K207" s="26">
+      <c r="K207" s="23">
         <v>8961</v>
       </c>
     </row>
@@ -13355,10 +13313,10 @@
       <c r="C208" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D208" s="25">
+      <c r="D208" s="22">
         <v>500</v>
       </c>
-      <c r="E208" s="25">
+      <c r="E208" s="22">
         <v>50</v>
       </c>
       <c r="F208" s="2">
@@ -13376,7 +13334,7 @@
       <c r="J208" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K208" s="26">
+      <c r="K208" s="23">
         <v>17327</v>
       </c>
     </row>
@@ -13390,10 +13348,10 @@
       <c r="C209" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D209" s="25">
+      <c r="D209" s="22">
         <v>500</v>
       </c>
-      <c r="E209" s="25">
+      <c r="E209" s="22">
         <v>50</v>
       </c>
       <c r="F209" s="2">
@@ -13411,7 +13369,7 @@
       <c r="J209" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K209" s="26">
+      <c r="K209" s="23">
         <v>17327</v>
       </c>
     </row>
@@ -13425,10 +13383,10 @@
       <c r="C210" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D210" s="25">
+      <c r="D210" s="22">
         <v>500</v>
       </c>
-      <c r="E210" s="25">
+      <c r="E210" s="22">
         <v>50</v>
       </c>
       <c r="F210" s="2">
@@ -13446,7 +13404,7 @@
       <c r="J210" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K210" s="26">
+      <c r="K210" s="23">
         <v>17327</v>
       </c>
     </row>
@@ -13460,10 +13418,10 @@
       <c r="C211" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D211" s="25">
+      <c r="D211" s="22">
         <v>500</v>
       </c>
-      <c r="E211" s="25">
+      <c r="E211" s="22">
         <v>50</v>
       </c>
       <c r="F211" s="2">
@@ -13481,7 +13439,7 @@
       <c r="J211" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K211" s="26">
+      <c r="K211" s="23">
         <v>17327</v>
       </c>
     </row>
@@ -13495,10 +13453,10 @@
       <c r="C212" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D212" s="25">
+      <c r="D212" s="22">
         <v>500</v>
       </c>
-      <c r="E212" s="25">
+      <c r="E212" s="22">
         <v>50</v>
       </c>
       <c r="F212" s="2">
@@ -13516,7 +13474,7 @@
       <c r="J212" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K212" s="26">
+      <c r="K212" s="23">
         <v>17335</v>
       </c>
     </row>
@@ -13530,10 +13488,10 @@
       <c r="C213" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="25">
+      <c r="D213" s="22">
         <v>500</v>
       </c>
-      <c r="E213" s="25">
+      <c r="E213" s="22">
         <v>50</v>
       </c>
       <c r="F213" s="2">
@@ -13551,7 +13509,7 @@
       <c r="J213" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K213" s="26">
+      <c r="K213" s="23">
         <v>8959</v>
       </c>
     </row>
@@ -13565,10 +13523,10 @@
       <c r="C214" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D214" s="25">
+      <c r="D214" s="22">
         <v>500</v>
       </c>
-      <c r="E214" s="25">
+      <c r="E214" s="22">
         <v>50</v>
       </c>
       <c r="F214" s="2">
@@ -13586,7 +13544,7 @@
       <c r="J214" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K214" s="26">
+      <c r="K214" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -13600,10 +13558,10 @@
       <c r="C215" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D215" s="25">
+      <c r="D215" s="22">
         <v>500</v>
       </c>
-      <c r="E215" s="25">
+      <c r="E215" s="22">
         <v>50</v>
       </c>
       <c r="F215" s="2">
@@ -13621,7 +13579,7 @@
       <c r="J215" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K215" s="26">
+      <c r="K215" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -13635,10 +13593,10 @@
       <c r="C216" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D216" s="25">
+      <c r="D216" s="22">
         <v>500</v>
       </c>
-      <c r="E216" s="25">
+      <c r="E216" s="22">
         <v>50</v>
       </c>
       <c r="F216" s="2">
@@ -13656,7 +13614,7 @@
       <c r="J216" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K216" s="26">
+      <c r="K216" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -13670,10 +13628,10 @@
       <c r="C217" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D217" s="25">
+      <c r="D217" s="22">
         <v>500</v>
       </c>
-      <c r="E217" s="25">
+      <c r="E217" s="22">
         <v>50</v>
       </c>
       <c r="F217" s="2">
@@ -13691,7 +13649,7 @@
       <c r="J217" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K217" s="26">
+      <c r="K217" s="23">
         <v>8954</v>
       </c>
     </row>
@@ -13705,10 +13663,10 @@
       <c r="C218" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D218" s="25">
+      <c r="D218" s="22">
         <v>500</v>
       </c>
-      <c r="E218" s="25">
+      <c r="E218" s="22">
         <v>50</v>
       </c>
       <c r="F218" s="2">
@@ -13726,7 +13684,7 @@
       <c r="J218" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K218" s="26">
+      <c r="K218" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -13740,10 +13698,10 @@
       <c r="C219" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D219" s="25">
+      <c r="D219" s="22">
         <v>500</v>
       </c>
-      <c r="E219" s="25">
+      <c r="E219" s="22">
         <v>50</v>
       </c>
       <c r="F219" s="2">
@@ -13761,7 +13719,7 @@
       <c r="J219" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K219" s="26">
+      <c r="K219" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -13775,10 +13733,10 @@
       <c r="C220" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D220" s="25">
+      <c r="D220" s="22">
         <v>500</v>
       </c>
-      <c r="E220" s="25">
+      <c r="E220" s="22">
         <v>50</v>
       </c>
       <c r="F220" s="2">
@@ -13796,7 +13754,7 @@
       <c r="J220" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K220" s="26">
+      <c r="K220" s="23">
         <v>8960</v>
       </c>
     </row>
@@ -13810,10 +13768,10 @@
       <c r="C221" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D221" s="25">
+      <c r="D221" s="22">
         <v>500</v>
       </c>
-      <c r="E221" s="25">
+      <c r="E221" s="22">
         <v>50</v>
       </c>
       <c r="F221" s="2">
@@ -13831,7 +13789,7 @@
       <c r="J221" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K221" s="26">
+      <c r="K221" s="23">
         <v>125</v>
       </c>
     </row>
@@ -13845,10 +13803,10 @@
       <c r="C222" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D222" s="25">
+      <c r="D222" s="22">
         <v>500</v>
       </c>
-      <c r="E222" s="25">
+      <c r="E222" s="22">
         <v>50</v>
       </c>
       <c r="F222" s="2">
@@ -13866,7 +13824,7 @@
       <c r="J222" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K222" s="26">
+      <c r="K222" s="23">
         <v>507</v>
       </c>
     </row>
@@ -13880,10 +13838,10 @@
       <c r="C223" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D223" s="25">
+      <c r="D223" s="22">
         <v>500</v>
       </c>
-      <c r="E223" s="25">
+      <c r="E223" s="22">
         <v>50</v>
       </c>
       <c r="F223" s="2">
@@ -13901,7 +13859,7 @@
       <c r="J223" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K223" s="26">
+      <c r="K223" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -13915,10 +13873,10 @@
       <c r="C224" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D224" s="25">
+      <c r="D224" s="22">
         <v>500</v>
       </c>
-      <c r="E224" s="25">
+      <c r="E224" s="22">
         <v>50</v>
       </c>
       <c r="F224" s="2">
@@ -13936,7 +13894,7 @@
       <c r="J224" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K224" s="26">
+      <c r="K224" s="23">
         <v>17326</v>
       </c>
     </row>
@@ -13950,10 +13908,10 @@
       <c r="C225" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D225" s="25">
+      <c r="D225" s="22">
         <v>500</v>
       </c>
-      <c r="E225" s="25">
+      <c r="E225" s="22">
         <v>50</v>
       </c>
       <c r="F225" s="2">
@@ -13971,7 +13929,7 @@
       <c r="J225" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K225" s="26">
+      <c r="K225" s="23">
         <v>507</v>
       </c>
     </row>
@@ -13985,10 +13943,10 @@
       <c r="C226" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D226" s="25">
+      <c r="D226" s="22">
         <v>500</v>
       </c>
-      <c r="E226" s="25">
+      <c r="E226" s="22">
         <v>50</v>
       </c>
       <c r="F226" s="2">
@@ -14006,7 +13964,7 @@
       <c r="J226" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K226" s="26">
+      <c r="K226" s="23">
         <v>572</v>
       </c>
     </row>
@@ -14020,10 +13978,10 @@
       <c r="C227" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D227" s="25">
+      <c r="D227" s="22">
         <v>680</v>
       </c>
-      <c r="E227" s="25">
+      <c r="E227" s="22">
         <v>68</v>
       </c>
       <c r="F227" s="2">
@@ -14041,7 +13999,7 @@
       <c r="J227" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K227" s="26">
+      <c r="K227" s="23">
         <v>124</v>
       </c>
     </row>
@@ -14055,10 +14013,10 @@
       <c r="C228" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D228" s="25">
+      <c r="D228" s="22">
         <v>680</v>
       </c>
-      <c r="E228" s="25">
+      <c r="E228" s="22">
         <v>68</v>
       </c>
       <c r="F228" s="2">
@@ -14076,7 +14034,7 @@
       <c r="J228" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K228" s="26">
+      <c r="K228" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -14090,10 +14048,10 @@
       <c r="C229" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D229" s="25">
+      <c r="D229" s="22">
         <v>200.95</v>
       </c>
-      <c r="E229" s="25">
+      <c r="E229" s="22">
         <v>20.100000000000001</v>
       </c>
       <c r="F229" s="2">
@@ -14111,7 +14069,7 @@
       <c r="J229" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K229" s="26">
+      <c r="K229" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -14125,10 +14083,10 @@
       <c r="C230" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D230" s="25">
+      <c r="D230" s="22">
         <v>200.95</v>
       </c>
-      <c r="E230" s="25">
+      <c r="E230" s="22">
         <v>20.100000000000001</v>
       </c>
       <c r="F230" s="2">
@@ -14146,7 +14104,7 @@
       <c r="J230" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K230" s="26">
+      <c r="K230" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -14160,10 +14118,10 @@
       <c r="C231" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D231" s="25">
+      <c r="D231" s="22">
         <v>200.95</v>
       </c>
-      <c r="E231" s="25">
+      <c r="E231" s="22">
         <v>20.100000000000001</v>
       </c>
       <c r="F231" s="2">
@@ -14181,7 +14139,7 @@
       <c r="J231" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K231" s="26">
+      <c r="K231" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -14195,10 +14153,10 @@
       <c r="C232" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D232" s="25">
+      <c r="D232" s="22">
         <v>2310</v>
       </c>
-      <c r="E232" s="25">
+      <c r="E232" s="22">
         <v>231</v>
       </c>
       <c r="F232" s="2">
@@ -14216,7 +14174,7 @@
       <c r="J232" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K232" s="26">
+      <c r="K232" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -14230,10 +14188,10 @@
       <c r="C233" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D233" s="25">
+      <c r="D233" s="22">
         <v>2310</v>
       </c>
-      <c r="E233" s="25">
+      <c r="E233" s="22">
         <v>231</v>
       </c>
       <c r="F233" s="2">
@@ -14251,7 +14209,7 @@
       <c r="J233" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K233" s="26">
+      <c r="K233" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -14265,10 +14223,10 @@
       <c r="C234" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D234" s="25">
+      <c r="D234" s="22">
         <v>2310</v>
       </c>
-      <c r="E234" s="25">
+      <c r="E234" s="22">
         <v>231</v>
       </c>
       <c r="F234" s="2">
@@ -14286,7 +14244,7 @@
       <c r="J234" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K234" s="26">
+      <c r="K234" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -14300,10 +14258,10 @@
       <c r="C235" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D235" s="25">
+      <c r="D235" s="22">
         <v>2310</v>
       </c>
-      <c r="E235" s="25">
+      <c r="E235" s="22">
         <v>231</v>
       </c>
       <c r="F235" s="2">
@@ -14321,7 +14279,7 @@
       <c r="J235" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K235" s="26">
+      <c r="K235" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -14335,10 +14293,10 @@
       <c r="C236" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D236" s="25">
+      <c r="D236" s="22">
         <v>680</v>
       </c>
-      <c r="E236" s="25">
+      <c r="E236" s="22">
         <v>68</v>
       </c>
       <c r="F236" s="2">
@@ -14356,7 +14314,7 @@
       <c r="J236" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K236" s="26">
+      <c r="K236" s="23">
         <v>9</v>
       </c>
     </row>
@@ -14370,10 +14328,10 @@
       <c r="C237" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D237" s="25">
+      <c r="D237" s="22">
         <v>307</v>
       </c>
-      <c r="E237" s="25">
+      <c r="E237" s="22">
         <v>30.7</v>
       </c>
       <c r="F237" s="2">
@@ -14391,7 +14349,7 @@
       <c r="J237" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K237" s="26">
+      <c r="K237" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -14405,10 +14363,10 @@
       <c r="C238" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D238" s="25">
+      <c r="D238" s="22">
         <v>307.56</v>
       </c>
-      <c r="E238" s="25">
+      <c r="E238" s="22">
         <v>30.76</v>
       </c>
       <c r="F238" s="2">
@@ -14426,7 +14384,7 @@
       <c r="J238" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K238" s="26">
+      <c r="K238" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -14440,10 +14398,10 @@
       <c r="C239" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D239" s="25">
+      <c r="D239" s="22">
         <v>1600.1</v>
       </c>
-      <c r="E239" s="25">
+      <c r="E239" s="22">
         <v>320.02</v>
       </c>
       <c r="F239" s="2">
@@ -14461,7 +14419,7 @@
       <c r="J239" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K239" s="26">
+      <c r="K239" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -14475,10 +14433,10 @@
       <c r="C240" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D240" s="25">
+      <c r="D240" s="22">
         <v>2113.4</v>
       </c>
-      <c r="E240" s="25">
+      <c r="E240" s="22">
         <v>422.68</v>
       </c>
       <c r="F240" s="2">
@@ -14496,7 +14454,7 @@
       <c r="J240" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K240" s="26">
+      <c r="K240" s="23">
         <v>124</v>
       </c>
     </row>
@@ -14510,10 +14468,10 @@
       <c r="C241" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D241" s="25">
+      <c r="D241" s="22">
         <v>314.47000000000003</v>
       </c>
-      <c r="E241" s="25">
+      <c r="E241" s="22">
         <v>31.45</v>
       </c>
       <c r="F241" s="2">
@@ -14531,7 +14489,7 @@
       <c r="J241" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K241" s="26">
+      <c r="K241" s="23">
         <v>8964</v>
       </c>
     </row>
@@ -14545,10 +14503,10 @@
       <c r="C242" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D242" s="25">
+      <c r="D242" s="22">
         <v>314.47000000000003</v>
       </c>
-      <c r="E242" s="25">
+      <c r="E242" s="22">
         <v>31.45</v>
       </c>
       <c r="F242" s="2">
@@ -14566,7 +14524,7 @@
       <c r="J242" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K242" s="26">
+      <c r="K242" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -14580,10 +14538,10 @@
       <c r="C243" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D243" s="25">
+      <c r="D243" s="22">
         <v>314.47000000000003</v>
       </c>
-      <c r="E243" s="25">
+      <c r="E243" s="22">
         <v>31.45</v>
       </c>
       <c r="F243" s="2">
@@ -14601,7 +14559,7 @@
       <c r="J243" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K243" s="26">
+      <c r="K243" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -14615,10 +14573,10 @@
       <c r="C244" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D244" s="25">
+      <c r="D244" s="22">
         <v>314.47000000000003</v>
       </c>
-      <c r="E244" s="25">
+      <c r="E244" s="22">
         <v>31.45</v>
       </c>
       <c r="F244" s="2">
@@ -14636,7 +14594,7 @@
       <c r="J244" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K244" s="26">
+      <c r="K244" s="23">
         <v>8963</v>
       </c>
     </row>
@@ -14650,10 +14608,10 @@
       <c r="C245" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D245" s="25">
+      <c r="D245" s="22">
         <v>367</v>
       </c>
-      <c r="E245" s="25">
+      <c r="E245" s="22">
         <v>36.700000000000003</v>
       </c>
       <c r="F245" s="2">
@@ -14671,7 +14629,7 @@
       <c r="J245" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K245" s="26">
+      <c r="K245" s="23">
         <v>27776</v>
       </c>
     </row>
@@ -14685,10 +14643,10 @@
       <c r="C246" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D246" s="25">
+      <c r="D246" s="22">
         <v>367</v>
       </c>
-      <c r="E246" s="25">
+      <c r="E246" s="22">
         <v>36.700000000000003</v>
       </c>
       <c r="F246" s="2">
@@ -14706,7 +14664,7 @@
       <c r="J246" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K246" s="26">
+      <c r="K246" s="23">
         <v>125</v>
       </c>
     </row>
@@ -14720,10 +14678,10 @@
       <c r="C247" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D247" s="25">
+      <c r="D247" s="22">
         <v>609.99</v>
       </c>
-      <c r="E247" s="25">
+      <c r="E247" s="22">
         <v>61</v>
       </c>
       <c r="F247" s="2">
@@ -14741,7 +14699,7 @@
       <c r="J247" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K247" s="26">
+      <c r="K247" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -14755,10 +14713,10 @@
       <c r="C248" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D248" s="25">
+      <c r="D248" s="22">
         <v>367</v>
       </c>
-      <c r="E248" s="25">
+      <c r="E248" s="22">
         <v>36.700000000000003</v>
       </c>
       <c r="F248" s="2">
@@ -14776,7 +14734,7 @@
       <c r="J248" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K248" s="26">
+      <c r="K248" s="23">
         <v>8961</v>
       </c>
     </row>
@@ -14790,10 +14748,10 @@
       <c r="C249" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D249" s="25">
+      <c r="D249" s="22">
         <v>597.5</v>
       </c>
-      <c r="E249" s="25">
+      <c r="E249" s="22">
         <v>59.75</v>
       </c>
       <c r="F249" s="2">
@@ -14811,7 +14769,7 @@
       <c r="J249" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K249" s="26">
+      <c r="K249" s="23">
         <v>572</v>
       </c>
     </row>
@@ -14825,10 +14783,10 @@
       <c r="C250" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D250" s="25">
+      <c r="D250" s="22">
         <v>127.05</v>
       </c>
-      <c r="E250" s="25">
+      <c r="E250" s="22">
         <v>12.71</v>
       </c>
       <c r="F250" s="2">
@@ -14846,7 +14804,7 @@
       <c r="J250" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K250" s="26">
+      <c r="K250" s="23">
         <v>1083</v>
       </c>
     </row>
@@ -14860,10 +14818,10 @@
       <c r="C251" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D251" s="25">
+      <c r="D251" s="22">
         <v>365.25</v>
       </c>
-      <c r="E251" s="25">
+      <c r="E251" s="22">
         <v>36.53</v>
       </c>
       <c r="F251" s="2">
@@ -14881,7 +14839,7 @@
       <c r="J251" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K251" s="26">
+      <c r="K251" s="23">
         <v>12456</v>
       </c>
     </row>
@@ -14895,10 +14853,10 @@
       <c r="C252" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D252" s="25">
+      <c r="D252" s="22">
         <v>365.25</v>
       </c>
-      <c r="E252" s="25">
+      <c r="E252" s="22">
         <v>36.53</v>
       </c>
       <c r="F252" s="2">
@@ -14916,7 +14874,7 @@
       <c r="J252" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K252" s="26">
+      <c r="K252" s="23">
         <v>572</v>
       </c>
     </row>
@@ -14930,10 +14888,10 @@
       <c r="C253" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D253" s="25">
+      <c r="D253" s="22">
         <v>670</v>
       </c>
-      <c r="E253" s="25">
+      <c r="E253" s="22">
         <v>67</v>
       </c>
       <c r="F253" s="2">
@@ -14951,7 +14909,7 @@
       <c r="J253" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="K253" s="26">
+      <c r="K253" s="23">
         <v>572</v>
       </c>
     </row>
@@ -14965,10 +14923,10 @@
       <c r="C254" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D254" s="25">
+      <c r="D254" s="22">
         <v>593.27</v>
       </c>
-      <c r="E254" s="25">
+      <c r="E254" s="22">
         <v>335.75</v>
       </c>
       <c r="F254" s="2">
@@ -14986,7 +14944,7 @@
       <c r="J254" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K254" s="26">
+      <c r="K254" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -15000,10 +14958,10 @@
       <c r="C255" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D255" s="25">
+      <c r="D255" s="22">
         <v>642.6</v>
       </c>
-      <c r="E255" s="25">
+      <c r="E255" s="22">
         <v>363.62</v>
       </c>
       <c r="F255" s="2">
@@ -15021,7 +14979,7 @@
       <c r="J255" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K255" s="26">
+      <c r="K255" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -15035,10 +14993,10 @@
       <c r="C256" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D256" s="25">
+      <c r="D256" s="22">
         <v>330</v>
       </c>
-      <c r="E256" s="25">
+      <c r="E256" s="22">
         <v>189.21</v>
       </c>
       <c r="F256" s="2">
@@ -15056,7 +15014,7 @@
       <c r="J256" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K256" s="26">
+      <c r="K256" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -15070,10 +15028,10 @@
       <c r="C257" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D257" s="25">
+      <c r="D257" s="22">
         <v>330</v>
       </c>
-      <c r="E257" s="25">
+      <c r="E257" s="22">
         <v>189.21</v>
       </c>
       <c r="F257" s="2">
@@ -15091,7 +15049,7 @@
       <c r="J257" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K257" s="26">
+      <c r="K257" s="23">
         <v>9906</v>
       </c>
     </row>
@@ -15105,10 +15063,10 @@
       <c r="C258" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D258" s="25">
+      <c r="D258" s="22">
         <v>301.24</v>
       </c>
-      <c r="E258" s="25">
+      <c r="E258" s="22">
         <v>116.33</v>
       </c>
       <c r="F258" s="2">
@@ -15126,7 +15084,7 @@
       <c r="J258" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K258" s="26">
+      <c r="K258" s="23">
         <v>18652</v>
       </c>
     </row>
@@ -15151,54 +15109,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>486</v>
       </c>
     </row>
@@ -15209,43 +15168,43 @@
       <c r="B2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="27">
         <v>45108</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>6817</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="29">
         <v>35050</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <v>3490</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>490</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="31" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15276,25 +15235,24 @@
       <c r="B1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="36">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="33">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="36">
         <v>321</v>
       </c>
-      <c r="F1" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="39">
-        <v>321</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="C2" s="34">
         <v>2.1227350879513291E-2</v>
       </c>
     </row>

--- a/BAGE.xlsx
+++ b/BAGE.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E445F0F6-91D0-4224-AE6D-F2B8426D3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{306BD5C2-B269-46B3-8A13-004D2C35396F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="500">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1511,6 +1512,24 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
+  </si>
+  <si>
+    <t>MOT-Limpeza</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT/não responde TEAMS</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1540,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1593,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1588,7 +1620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,6 +1661,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1701,9 +1739,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1793,12 +1831,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5EE97DCD-8693-46D4-98E6-DEC8E58D0221}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9AF7E13E-A09C-4A14-937D-DD200543D890}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1828,10 +1870,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB4C15E-9E2E-4FF5-808D-CCCC22B65D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7088393-1ADA-4CD8-B81A-DB1F64EC849F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1911,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9889EECB-1ED4-4070-8AB4-16D809FA1731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E620BC86-5F1C-494F-BFC0-7BBB3ECE5F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1974,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFEAA70-87E2-4ACB-850A-BDD70B1B638B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEECC3A-8F1A-48EF-90C3-1E4CA34D78CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1993,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A95F176-3628-0B4E-3149-B7B16D85CC1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B321A35-B380-FE9B-48F8-4C2AC32F7161}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2000,7 +2042,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7981AC73-28F6-28AA-C5B4-520A95BD60B1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60350038-9FB6-1D96-3F54-E7A42E13D192}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2019,7 +2061,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44766AD9-6B77-F6F4-AD3E-090962EB1A9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9956454B-81B9-4377-57FA-C8B5323E18B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2050,7 +2092,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A40974-CFB8-AD83-3D6D-AFCEC2F691C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EAD1F7-80BD-C3BD-3C39-58D5146C3981}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2081,7 +2123,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBD192C-C7DB-5A13-DC81-6B5C0E803ACE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFD553-767D-55CB-5886-1AC6FDB470C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2124,7 +2166,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DD0AB9-F76D-4590-857D-3851C9FA589E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE69621-EA52-4390-A047-59717A389C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2204,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983C65A1-4BD8-496B-95D9-4DCBCE488778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CBF931-8CB8-42E0-89D0-F9B1F3A6FFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2247,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EFBF33-F71E-4BDF-92CB-11C204CA5494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F54FE-DE61-41AA-8ABE-F265005650FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED7CBDE-5070-485F-AF7A-7C3EDCC30E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21FA28-9D22-4633-998D-C90FA6D9734B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2530,98 +2572,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="40"/>
+    <col min="6" max="6" width="2" style="40" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -15259,4 +15301,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BAGE.xlsx
+++ b/BAGE.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306BD5C2-B269-46B3-8A13-004D2C35396F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{867BBFCA-7D5E-4C06-8DE7-44C6AAFDC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
-    <sheet name="DGC" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="498">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1506,12 +1505,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1741,7 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,21 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,7 +1818,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9AF7E13E-A09C-4A14-937D-DD200543D890}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F68E9D3A-AADF-49C1-890B-F6C03FA3D07B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1870,10 +1848,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7088393-1ADA-4CD8-B81A-DB1F64EC849F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EF438A-9580-428C-9E8C-89C27EF149BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1889,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E620BC86-5F1C-494F-BFC0-7BBB3ECE5F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08185650-A841-4B66-B454-A430BF52FD4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1952,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEECC3A-8F1A-48EF-90C3-1E4CA34D78CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8EEE12-5483-460F-B93F-D176000B4429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1971,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B321A35-B380-FE9B-48F8-4C2AC32F7161}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190B145-43F4-B40E-6849-F3E17DF39F6C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2042,7 +2020,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60350038-9FB6-1D96-3F54-E7A42E13D192}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F04CE3-40DD-E7A2-E056-046AD76AA84D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2061,7 +2039,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9956454B-81B9-4377-57FA-C8B5323E18B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C2328B-64B3-9EB1-1797-AB5B21CE3496}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2092,7 +2070,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EAD1F7-80BD-C3BD-3C39-58D5146C3981}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAD558E-678B-A334-C15D-762C25294B04}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2123,7 +2101,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFD553-767D-55CB-5886-1AC6FDB470C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF484F8-7E3D-71A5-CDE0-6E424B81CE58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2166,7 +2144,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE69621-EA52-4390-A047-59717A389C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B51B51B-5E44-4CC7-A70C-C0E2FA5698AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2182,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CBF931-8CB8-42E0-89D0-F9B1F3A6FFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE222D93-EC29-4AA1-ABA2-BFF1BE3F1BDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2225,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F54FE-DE61-41AA-8ABE-F265005650FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935E8545-1A3E-4512-A29C-EABC8C8898AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21FA28-9D22-4633-998D-C90FA6D9734B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671E52F8-4B9F-4A8C-8D89-528CD4C4314F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2572,98 +2550,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -15257,54 +15235,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="36">
-        <v>321</v>
-      </c>
-      <c r="C2" s="34">
-        <v>2.1227350879513291E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15317,36 +15247,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/BAGE.xlsx
+++ b/BAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867BBFCA-7D5E-4C06-8DE7-44C6AAFDC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF20B01-DD0C-428A-B3E5-6F0FE97028AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1818,7 +1818,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F68E9D3A-AADF-49C1-890B-F6C03FA3D07B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9DEEA2A1-87AB-4418-9192-96431A0A053E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1848,10 +1848,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EF438A-9580-428C-9E8C-89C27EF149BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBED8AE-5DC5-4F8E-B4F9-2EA85FFF3B9A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1889,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08185650-A841-4B66-B454-A430BF52FD4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72039D7F-B111-469A-B042-097E3013BD0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1952,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8EEE12-5483-460F-B93F-D176000B4429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E20263-123E-4CD5-88A1-DF61C01A5C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190B145-43F4-B40E-6849-F3E17DF39F6C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E7EC84-01B7-48D5-9590-84ED252A07EE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2020,7 +2020,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F04CE3-40DD-E7A2-E056-046AD76AA84D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636DFC44-1CDD-41BF-6EEE-44D3F4F5FCC6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2039,7 +2039,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C2328B-64B3-9EB1-1797-AB5B21CE3496}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAD6C0E-4C89-2119-29FB-954D5DD257FD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2070,7 +2070,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAD558E-678B-A334-C15D-762C25294B04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F39FADD-2700-CA47-4AD8-7343374B567B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2101,7 +2101,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF484F8-7E3D-71A5-CDE0-6E424B81CE58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98001CF-EF82-8B69-D109-C0CEBF8F5FC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2144,7 +2144,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B51B51B-5E44-4CC7-A70C-C0E2FA5698AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996ED35E-1101-4647-B25A-0366233DED8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2182,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE222D93-EC29-4AA1-ABA2-BFF1BE3F1BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4A7940-374E-423A-A7EB-F4F1AAEC030A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,50 +2207,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935E8545-1A3E-4512-A29C-EABC8C8898AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2538,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671E52F8-4B9F-4A8C-8D89-528CD4C4314F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B29E51-C9E8-41CA-81A7-8380ADB72846}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
